--- a/docs/testCases/secondSprint/TestCase-Navigation-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Navigation-Functionality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\SecondSprint\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD180BE-B66D-4ED6-A714-A5669049EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67691A8-E84A-4B88-8F81-48F04FFB6C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="5370" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="4305" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -100,6 +100,66 @@
   </si>
   <si>
     <t>Navigation Functionality</t>
+  </si>
+  <si>
+    <t>Rasa Medveckaja</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>As a site visitor, I want to be able to navigate through the different pages: “Pricing“, “About“, “Contact” and by clicking on the logo return to the “home” page.</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
+  </si>
+  <si>
+    <t>This link should redirect me to main page</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass   </t>
+  </si>
+  <si>
+    <t>Follow the Navigation design on mobile devices.</t>
+  </si>
+  <si>
+    <t>Follow the Navigation design on tablet devices.</t>
+  </si>
+  <si>
+    <t>On Mobile devices Navigation should be a drop-down and a list of selections (“Pricing“, “About“, “Contact”,“Schedule a demo”) should pop-out. There should be an X button on top right to close the navigation.</t>
+  </si>
+  <si>
+    <t>The "Pricing", "About", "Contact" buttons should respond to user input and the text becomes bold, and the cursor should respond to user input and change shape.</t>
+  </si>
+  <si>
+    <t>Follow the navigation design on the desktop.</t>
+  </si>
+  <si>
+    <t>Buttons “Pricing“, “About“, “Contact” should react to user input and text becomes bold, and Cursor should react to user input and change form.</t>
+  </si>
+  <si>
+    <t>Follow the "Schedule Demo" navigation button.</t>
+  </si>
+  <si>
+    <t>The "Schedule Demo" button should respond to user input and become a brighter color, and the cursor should change shape.</t>
+  </si>
+  <si>
+    <t>On mobile devices, there is no navigation dropdown, instead showing a list of navigation options ("Pricing", "About", "Contact", "Schedule a Demo"), and there is no X button in the upper right corner, which is needed to close the navigation. Button colors, font sizes, font families, and other design elements do not meet the requirements specified in Figma's "Design System".</t>
+  </si>
+  <si>
+    <t>The "Pricing", "About", "Contact" buttons respond to user input, but the text does not become bold, and the cursor responds to user input and changes shape. Button colors, font sizes, font families, and other design elements do not meet the requirements specified in Figma's "Design System".</t>
+  </si>
+  <si>
+    <t>TABLET/DESKTOP: The "Schedule Demo" button responds to user input and the cursor changes shape, but the button does not become a brighter color, and the colors, font sizes, font families, and other design elements of the "Schedule Demo" button do not meet the requirements specified in Figma's "Design System".</t>
+  </si>
+  <si>
+    <t>BUG-1</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -165,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,12 +300,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -278,6 +347,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -294,6 +366,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -313,6 +394,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -325,29 +412,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,57 +717,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="1">
+      <c r="B1" s="27"/>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -693,11 +784,11 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -708,7 +799,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -721,26 +812,32 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41">
+        <v>45266</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="40"/>
+      <c r="J6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -753,153 +850,158 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -915,133 +1017,158 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>6</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="B24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="54">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1075,30 +1202,27 @@
     <mergeCell ref="D18:E19"/>
     <mergeCell ref="F18:H19"/>
     <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B16:L16"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/secondSprint/TestCase-Navigation-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Navigation-Functionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67691A8-E84A-4B88-8F81-48F04FFB6C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD460DE-61D7-4286-8899-D2F2F184A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="4305" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>As a site visitor, I want to be able to navigate through the different pages: “Pricing“, “About“, “Contact” and by clicking on the logo return to the “home” page.</t>
   </si>
   <si>
-    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
-  </si>
-  <si>
     <t>This link should redirect me to main page</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -351,29 +351,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -388,9 +411,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -400,40 +420,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,7 +720,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,17 +730,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
@@ -751,25 +751,25 @@
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -785,10 +785,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -813,29 +813,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23">
         <v>45266</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="36" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -854,28 +854,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="16"/>
@@ -884,7 +884,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -894,7 +894,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="16"/>
@@ -903,7 +903,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -913,7 +913,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="16"/>
@@ -922,7 +922,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -932,7 +932,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="16"/>
@@ -941,7 +941,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -951,7 +951,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="16"/>
@@ -960,7 +960,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -970,8 +970,8 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>44</v>
+      <c r="B14" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
@@ -979,7 +979,7 @@
       <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -989,19 +989,19 @@
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1017,60 +1017,60 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="22" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="15" t="s">
-        <v>31</v>
+      <c r="I20" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="17"/>
@@ -1079,67 +1079,67 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19" t="s">
+      <c r="B21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19" t="s">
+      <c r="B22" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="15" t="s">
-        <v>30</v>
+      <c r="E23" s="41"/>
+      <c r="F23" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="15" t="s">
-        <v>31</v>
+      <c r="I23" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="17"/>
@@ -1148,20 +1148,20 @@
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15" t="s">
-        <v>42</v>
+      <c r="E24" s="37"/>
+      <c r="F24" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J24" s="16"/>
@@ -1169,40 +1169,10 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
@@ -1219,10 +1189,40 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
